--- a/sentily_predictions.xlsx
+++ b/sentily_predictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Original Comment</t>
   </si>
@@ -31,70 +31,19 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>Klau macam ni kan besT! syabas!!</t>
-  </si>
-  <si>
-    <t>xbest langsung</t>
-  </si>
-  <si>
-    <t>awak ni comel la</t>
-  </si>
-  <si>
-    <t>nak jumpa esok? saya tak sabar nak jumpa awak</t>
-  </si>
-  <si>
-    <t>xsabar nak tgk movie ni!!!!</t>
-  </si>
-  <si>
-    <t>ISHHH JANGAN LA</t>
-  </si>
-  <si>
-    <t>klau macam kan bagus syabas</t>
-  </si>
-  <si>
-    <t>NOT_best langsung</t>
-  </si>
-  <si>
-    <t>comel</t>
-  </si>
-  <si>
-    <t>hendak jumpa hari esok NOT_sabar hendak jumpa</t>
-  </si>
-  <si>
-    <t>NOT_sabar hendak tengok filem</t>
-  </si>
-  <si>
-    <t>ish jangan</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>99.07%</t>
-  </si>
-  <si>
-    <t>55.84%</t>
-  </si>
-  <si>
-    <t>98.88%</t>
-  </si>
-  <si>
-    <t>75.5%</t>
-  </si>
-  <si>
-    <t>55.83%</t>
-  </si>
-  <si>
-    <t>64.49%</t>
-  </si>
-  <si>
-    <t>😊 Positive</t>
-  </si>
-  <si>
-    <t>😞 Negative</t>
+    <t>kalau mcm ni,,</t>
+  </si>
+  <si>
+    <t>kalau macam</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>44.22%</t>
+  </si>
+  <si>
+    <t>😐 Neutral</t>
   </si>
 </sst>
 </file>
@@ -452,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,101 +429,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
